--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2665.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2665.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.159319708924425</v>
+        <v>1.507985234260559</v>
       </c>
       <c r="B1">
-        <v>2.422177454999252</v>
+        <v>1.530914187431335</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.571980953216553</v>
       </c>
       <c r="D1">
-        <v>2.326262362774888</v>
+        <v>2.081084489822388</v>
       </c>
       <c r="E1">
-        <v>1.210482749871084</v>
+        <v>3.52023983001709</v>
       </c>
     </row>
   </sheetData>
